--- a/2024AIDataScienceGNRGeneral/Attendance2.xlsx
+++ b/2024AIDataScienceGNRGeneral/Attendance2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2024AIDataScienceGNRGeneral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4591418-AF21-467B-B5C1-B9C43D40CC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D61E49-4405-4C47-90C3-9C306AD706AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -455,11 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP36"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP18" sqref="AP18"/>
+      <selection pane="topRight" activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
     <col min="27" max="27" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,8 +598,11 @@
       <c r="AP1" s="1">
         <v>45801</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ1" s="1">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -726,8 +729,11 @@
       <c r="AP2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="AP3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -982,8 +991,11 @@
       <c r="AP4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1110,8 +1122,11 @@
       <c r="AP5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1238,8 +1253,11 @@
       <c r="AP6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1476,8 +1494,11 @@
       <c r="AP8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1604,8 +1625,11 @@
       <c r="AP9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1732,8 +1756,11 @@
       <c r="AP10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1860,8 +1887,11 @@
       <c r="AP11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1988,8 +2018,11 @@
       <c r="AP12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2116,8 +2149,11 @@
       <c r="AP13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2244,8 +2280,11 @@
       <c r="AP14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2279,8 +2318,11 @@
       <c r="AP15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2314,8 +2356,11 @@
       <c r="AP16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2343,13 +2388,16 @@
       <c r="AP17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2366,7 +2414,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2383,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2400,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2465,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2434,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2451,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2468,7 +2516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2485,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2502,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2519,7 +2567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2536,7 +2584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2553,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>

--- a/2024AIDataScienceGNRGeneral/Attendance2.xlsx
+++ b/2024AIDataScienceGNRGeneral/Attendance2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2024AIDataScienceGNRGeneral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D61E49-4405-4C47-90C3-9C306AD706AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1522015-FE0F-44E5-8786-BAA8E0D5FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -455,11 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ36"/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP17" sqref="AP17"/>
+      <selection pane="topRight" activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
     <col min="27" max="27" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +601,11 @@
       <c r="AQ1" s="1">
         <v>45808</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR1" s="1">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -732,8 +735,11 @@
       <c r="AQ2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -863,8 +869,11 @@
       <c r="AQ3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -994,8 +1003,11 @@
       <c r="AQ4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1125,8 +1137,11 @@
       <c r="AQ5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1271,11 @@
       <c r="AQ6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1497,8 +1515,11 @@
       <c r="AQ8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1628,8 +1649,11 @@
       <c r="AQ9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1759,8 +1783,11 @@
       <c r="AQ10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1890,8 +1917,11 @@
       <c r="AQ11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2021,8 +2051,11 @@
       <c r="AQ12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2152,8 +2185,11 @@
       <c r="AQ13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2283,8 +2319,11 @@
       <c r="AQ14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2321,8 +2360,11 @@
       <c r="AQ15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2359,8 +2401,11 @@
       <c r="AQ16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2391,13 +2436,16 @@
       <c r="AQ17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2414,7 +2462,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2431,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2448,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2465,7 +2513,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2482,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2499,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2516,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2550,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2567,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2601,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>

--- a/2024AIDataScienceGNRGeneral/Attendance2.xlsx
+++ b/2024AIDataScienceGNRGeneral/Attendance2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2024AIDataScienceGNRGeneral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1522015-FE0F-44E5-8786-BAA8E0D5FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B00D6-4759-4C0F-83AF-5309AF148D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -455,11 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR36"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR16" sqref="AR16"/>
+      <selection pane="topRight" activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
     <col min="27" max="27" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +604,11 @@
       <c r="AR1" s="1">
         <v>45822</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS1" s="1">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -738,8 +741,11 @@
       <c r="AR2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -872,8 +878,11 @@
       <c r="AR3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1006,8 +1015,11 @@
       <c r="AR4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1140,8 +1152,11 @@
       <c r="AR5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1274,8 +1289,11 @@
       <c r="AR6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1518,8 +1536,11 @@
       <c r="AR8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1652,8 +1673,11 @@
       <c r="AR9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1786,8 +1810,11 @@
       <c r="AR10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1920,8 +1947,11 @@
       <c r="AR11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2054,8 +2084,11 @@
       <c r="AR12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2188,8 +2221,11 @@
       <c r="AR13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2322,8 +2358,11 @@
       <c r="AR14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2363,8 +2402,11 @@
       <c r="AR15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2404,8 +2446,11 @@
       <c r="AR16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2439,13 +2484,16 @@
       <c r="AR17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2462,7 +2510,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2479,7 +2527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2496,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2513,7 +2561,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2530,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2547,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2564,7 +2612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2598,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2615,7 +2663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2632,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2649,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>

--- a/2024AIDataScienceGNRGeneral/Attendance2.xlsx
+++ b/2024AIDataScienceGNRGeneral/Attendance2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2024AIDataScienceGNRGeneral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B00D6-4759-4C0F-83AF-5309AF148D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0212C28-B1B5-4731-B822-201618CAD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -455,11 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AT36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS18" sqref="AS18"/>
+      <selection pane="topRight" activeCell="AT18" sqref="AT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
     <col min="27" max="27" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +607,11 @@
       <c r="AS1" s="1">
         <v>45829</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT1" s="1">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -744,8 +747,11 @@
       <c r="AS2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -881,8 +887,11 @@
       <c r="AS3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1018,8 +1027,11 @@
       <c r="AS4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1155,8 +1167,11 @@
       <c r="AS5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1292,8 +1307,11 @@
       <c r="AS6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1403,7 +1421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1539,8 +1557,11 @@
       <c r="AS8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1676,8 +1697,11 @@
       <c r="AS9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1813,8 +1837,11 @@
       <c r="AS10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1950,8 +1977,11 @@
       <c r="AS11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2087,8 +2117,11 @@
       <c r="AS12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2224,8 +2257,11 @@
       <c r="AS13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2361,8 +2397,11 @@
       <c r="AS14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2405,8 +2444,11 @@
       <c r="AS15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2449,8 +2491,11 @@
       <c r="AS16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2487,13 +2532,16 @@
       <c r="AS17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2510,7 +2558,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2527,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2544,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2561,7 +2609,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2595,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2612,7 +2660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2646,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2680,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2697,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
